--- a/src/main/resources/sql/数据字典1.3.xlsx
+++ b/src/main/resources/sql/数据字典1.3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB305526-04F7-4C3C-982D-7DE2CEF590B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5C8207-C312-40A6-A173-C544BD68C068}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="7740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="17970" windowHeight="7740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据字典" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="336">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1335,6 +1335,17 @@
   </si>
   <si>
     <t>sys_role_permission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_cover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(4)</t>
+  </si>
+  <si>
+    <t>是否封面 0-非封面 1-封面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1397,7 +1408,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1412,6 +1423,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1433,7 +1450,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1466,11 +1483,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="适中" xfId="2" builtinId="28"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1748,10 +1766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J257"/>
+  <dimension ref="A1:J258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G155" sqref="G155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3790,168 +3808,166 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="12"/>
-      <c r="B160" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>22</v>
+      <c r="B160" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C160" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="D160" s="14" t="s">
+        <v>335</v>
       </c>
       <c r="E160" s="12"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="12"/>
       <c r="B161" s="1" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E161" s="12"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="12"/>
       <c r="B162" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D162" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E162" s="12"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A163" s="12"/>
+      <c r="B163" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E162" s="12"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A163" s="4"/>
-      <c r="E163" s="4"/>
+      <c r="E163" s="12"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A164" s="12" t="s">
+      <c r="A164" s="4"/>
+      <c r="E164" s="4"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B165" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D164" s="1" t="s">
+      <c r="C165" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E164" s="12" t="s">
+      <c r="E165" s="12" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A165" s="12"/>
-      <c r="B165" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E165" s="12"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="12"/>
       <c r="B166" s="2" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>235</v>
+        <v>51</v>
       </c>
       <c r="E166" s="12"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="12"/>
-      <c r="B167" s="1" t="s">
-        <v>163</v>
+      <c r="B167" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>164</v>
+        <v>235</v>
       </c>
       <c r="E167" s="12"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="12"/>
-      <c r="B168" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>14</v>
+      <c r="B168" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="E168" s="12"/>
-      <c r="J168" s="2"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="12"/>
-      <c r="B169" s="1" t="s">
-        <v>46</v>
+      <c r="B169" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>48</v>
+        <v>14</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E169" s="12"/>
+      <c r="J169" s="2"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="12"/>
-      <c r="B170" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C170" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D170" s="10" t="s">
-        <v>320</v>
+      <c r="B170" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="E170" s="12"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="12"/>
       <c r="B171" s="10" t="s">
-        <v>314</v>
+        <v>185</v>
       </c>
       <c r="C171" s="10" t="s">
         <v>173</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E171" s="12"/>
-      <c r="H171" s="2"/>
-      <c r="J171" s="2"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="12"/>
       <c r="B172" s="10" t="s">
-        <v>182</v>
+        <v>314</v>
       </c>
       <c r="C172" s="10" t="s">
         <v>173</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E172" s="12"/>
       <c r="H172" s="2"/>
@@ -3960,1072 +3976,1102 @@
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="12"/>
       <c r="B173" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C173" s="10" t="s">
         <v>173</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E173" s="12"/>
       <c r="H173" s="2"/>
-      <c r="I173" s="2"/>
       <c r="J173" s="2"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="12"/>
       <c r="B174" s="10" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C174" s="10" t="s">
         <v>173</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E174" s="12"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="12"/>
-      <c r="B175" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>318</v>
+      <c r="B175" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>321</v>
       </c>
       <c r="E175" s="12"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="12"/>
-      <c r="B176" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C176" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D176" s="10" t="s">
-        <v>313</v>
+      <c r="B176" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="E176" s="12"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="12"/>
-      <c r="B177" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>196</v>
+      <c r="B177" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D177" s="10" t="s">
+        <v>313</v>
       </c>
       <c r="E177" s="12"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="12"/>
-      <c r="B178" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D178" s="10" t="s">
-        <v>311</v>
+      <c r="B178" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="E178" s="12"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="12"/>
       <c r="B179" s="10" t="s">
-        <v>309</v>
+        <v>193</v>
       </c>
       <c r="C179" s="10" t="s">
         <v>173</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E179" s="12"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="12"/>
       <c r="B180" s="10" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E180" s="12"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="12"/>
-      <c r="B181" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="C181" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D181" s="11" t="s">
-        <v>317</v>
+      <c r="B181" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="E181" s="12"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="12"/>
-      <c r="B182" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>171</v>
+      <c r="B182" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D182" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="E182" s="12"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="12"/>
       <c r="B183" s="2" t="s">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>239</v>
+        <v>161</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="E183" s="12"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="12"/>
       <c r="B184" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E184" s="12"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="12"/>
       <c r="B185" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>19</v>
+        <v>238</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="E185" s="12"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="12"/>
       <c r="B186" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E186" s="12"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="12"/>
       <c r="B187" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E187" s="12"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="12"/>
       <c r="B188" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E188" s="12"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="12"/>
-      <c r="B189" s="1" t="s">
-        <v>129</v>
+      <c r="B189" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>248</v>
+        <v>19</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="E189" s="12"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="12"/>
       <c r="B190" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>22</v>
+        <v>248</v>
       </c>
       <c r="E190" s="12"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="12"/>
       <c r="B191" s="1" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E191" s="12"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="12"/>
       <c r="B192" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E192" s="12"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="12"/>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E193" s="12"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="12"/>
+      <c r="B194" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D193" s="2" t="s">
+      <c r="C194" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E193" s="12"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="4"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-      <c r="E194" s="4"/>
+      <c r="E194" s="12"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="12" t="s">
+      <c r="A195" s="4"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="4"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B196" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C195" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D195" s="1" t="s">
+      <c r="C196" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E195" s="12" t="s">
+      <c r="E196" s="12" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="12"/>
-      <c r="B196" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E196" s="12"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="12"/>
       <c r="B197" s="1" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>290</v>
+        <v>171</v>
       </c>
       <c r="E197" s="12"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="12"/>
-      <c r="B198" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C198" s="2" t="s">
+      <c r="B198" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D198" s="2" t="s">
-        <v>175</v>
+      <c r="D198" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="E198" s="12"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="12"/>
-      <c r="B199" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>22</v>
+      <c r="B199" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="E199" s="12"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="12"/>
       <c r="B200" s="1" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E200" s="12"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="12"/>
       <c r="B201" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D201" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E201" s="12"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="12"/>
+      <c r="B202" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E201" s="12"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="4"/>
-      <c r="E202" s="4"/>
+      <c r="E202" s="12"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="13" t="s">
+      <c r="A203" s="4"/>
+      <c r="E203" s="4"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B204" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C203" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D203" s="1" t="s">
+      <c r="C204" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E203" s="12" t="s">
+      <c r="E204" s="12" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="13"/>
-      <c r="B204" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E204" s="12"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="13"/>
       <c r="B205" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E205" s="12"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="13"/>
-      <c r="B206" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C206" s="10" t="s">
+      <c r="B206" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D206" s="10" t="s">
-        <v>194</v>
+      <c r="D206" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="E206" s="12"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="13"/>
       <c r="B207" s="10" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="C207" s="10" t="s">
         <v>173</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>313</v>
+        <v>194</v>
       </c>
       <c r="E207" s="12"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="13"/>
-      <c r="B208" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>177</v>
+      <c r="B208" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D208" s="10" t="s">
+        <v>313</v>
       </c>
       <c r="E208" s="12"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="13"/>
-      <c r="B209" s="1" t="s">
-        <v>170</v>
+      <c r="B209" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>289</v>
+        <v>177</v>
       </c>
       <c r="E209" s="12"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="13"/>
       <c r="B210" s="1" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="E210" s="12"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="13"/>
       <c r="B211" s="1" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E211" s="12"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="13"/>
       <c r="B212" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D212" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E212" s="12"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="13"/>
+      <c r="B213" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D213" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E212" s="12"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="8"/>
-      <c r="E213" s="4"/>
+      <c r="E213" s="12"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="12" t="s">
+      <c r="A214" s="8"/>
+      <c r="E214" s="4"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B215" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D214" s="2" t="s">
+      <c r="C215" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E214" s="12" t="s">
+      <c r="E215" s="12" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="12"/>
-      <c r="B215" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E215" s="12"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="12"/>
       <c r="B216" s="2" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="E216" s="12"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="12"/>
       <c r="B217" s="2" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E217" s="12"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="12"/>
       <c r="B218" s="2" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="E218" s="12"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="12"/>
       <c r="B219" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="E219" s="12"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="12"/>
       <c r="B220" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E220" s="12"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="12"/>
+      <c r="B221" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D220" s="2" t="s">
+      <c r="C221" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E220" s="12"/>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="4"/>
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
-      <c r="E221" s="4"/>
+      <c r="E221" s="12"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" s="12" t="s">
+      <c r="A222" s="4"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="4"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B223" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C222" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D222" s="1" t="s">
+      <c r="C223" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D223" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E222" s="12" t="s">
+      <c r="E223" s="12" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" s="12"/>
-      <c r="B223" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E223" s="12"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="12"/>
       <c r="B224" s="2" t="s">
-        <v>223</v>
+        <v>63</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E224" s="12"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="12"/>
       <c r="B225" s="2" t="s">
-        <v>126</v>
+        <v>223</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
       <c r="E225" s="12"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="12"/>
       <c r="B226" s="2" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>227</v>
+        <v>177</v>
       </c>
       <c r="E226" s="12"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="12"/>
       <c r="B227" s="2" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E227" s="12"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="12"/>
-      <c r="B228" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>22</v>
+      <c r="B228" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="E228" s="12"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="12"/>
       <c r="B229" s="1" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E229" s="12"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="12"/>
       <c r="B230" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D230" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E230" s="12"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="12"/>
+      <c r="B231" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D231" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E230" s="12"/>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A231" s="4"/>
-      <c r="E231" s="4"/>
+      <c r="E231" s="12"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A232" s="13" t="s">
+      <c r="A232" s="4"/>
+      <c r="E232" s="4"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="B233" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C232" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D232" s="1" t="s">
+      <c r="C233" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D233" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E232" s="12" t="s">
+      <c r="E233" s="12" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233" s="13"/>
-      <c r="B233" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D233" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E233" s="12"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="13"/>
       <c r="B234" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E234" s="12"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="13"/>
-      <c r="B235" s="2" t="s">
-        <v>286</v>
+      <c r="B235" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="E235" s="12"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="13"/>
-      <c r="B236" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>78</v>
+      <c r="B236" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>287</v>
       </c>
       <c r="E236" s="12"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="13"/>
-      <c r="B237" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>292</v>
+      <c r="B237" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="E237" s="12"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="13"/>
-      <c r="B238" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>77</v>
+      <c r="B238" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="E238" s="12"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="13"/>
       <c r="B239" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D239" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E239" s="12"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="13"/>
+      <c r="B240" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D240" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E239" s="12"/>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="8"/>
-      <c r="E240" s="4"/>
+      <c r="E240" s="12"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="13" t="s">
+      <c r="A241" s="8"/>
+      <c r="E241" s="4"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B242" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D241" s="1" t="s">
+      <c r="C242" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D242" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E241" s="12" t="s">
+      <c r="E242" s="12" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" s="13"/>
-      <c r="B242" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E242" s="12"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="13"/>
       <c r="B243" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>323</v>
+        <v>237</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>324</v>
+        <v>249</v>
       </c>
       <c r="E243" s="12"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="13"/>
       <c r="B244" s="2" t="s">
-        <v>325</v>
+        <v>37</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E244" s="12"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="13"/>
       <c r="B245" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>25</v>
+        <v>326</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E245" s="12"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="13"/>
       <c r="B246" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E246" s="12"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="13"/>
+      <c r="B247" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C247" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D246" s="2" t="s">
+      <c r="D247" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E246" s="12"/>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248" s="12" t="s">
+      <c r="E247" s="12"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="B249" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C248" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D248" s="1" t="s">
+      <c r="C249" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D249" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E248" s="12" t="s">
+      <c r="E249" s="12" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A249" s="12"/>
-      <c r="B249" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E249" s="12"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="12"/>
       <c r="B250" s="2" t="s">
-        <v>34</v>
+        <v>304</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E250" s="12"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="12"/>
       <c r="B251" s="2" t="s">
-        <v>302</v>
+        <v>34</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E251" s="12"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="12"/>
       <c r="B252" s="2" t="s">
-        <v>36</v>
+        <v>302</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="E252" s="12"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="12"/>
-      <c r="B253" s="1" t="s">
-        <v>141</v>
+      <c r="B253" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D253" s="1" t="s">
-        <v>22</v>
+      <c r="D253" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="E253" s="12"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="12"/>
       <c r="B254" s="1" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E254" s="12"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="12"/>
       <c r="B255" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D255" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E255" s="12"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="12"/>
+      <c r="B256" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D256" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E255" s="12"/>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E256" s="1"/>
+      <c r="E256" s="12"/>
     </row>
     <row r="257" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E257" s="1"/>
     </row>
+    <row r="258" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E258" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="E82:E87"/>
-    <mergeCell ref="E89:E95"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="A146:A152"/>
-    <mergeCell ref="A164:A193"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="A89:A95"/>
-    <mergeCell ref="E108:E112"/>
-    <mergeCell ref="E146:E152"/>
-    <mergeCell ref="E164:E193"/>
-    <mergeCell ref="E97:E106"/>
-    <mergeCell ref="A97:A106"/>
+    <mergeCell ref="A249:A256"/>
+    <mergeCell ref="E249:E256"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="E2:E16"/>
+    <mergeCell ref="E242:E247"/>
+    <mergeCell ref="A114:A144"/>
+    <mergeCell ref="E114:E144"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="E233:E240"/>
+    <mergeCell ref="E215:E221"/>
+    <mergeCell ref="E223:E231"/>
+    <mergeCell ref="A233:A240"/>
+    <mergeCell ref="A196:A202"/>
+    <mergeCell ref="A223:A231"/>
+    <mergeCell ref="A242:A247"/>
+    <mergeCell ref="A215:A221"/>
+    <mergeCell ref="E196:E202"/>
+    <mergeCell ref="E204:E213"/>
+    <mergeCell ref="A204:A213"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A65:A80"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="E47:E52"/>
+    <mergeCell ref="E54:E59"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="E65:E80"/>
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A26:A38"/>
     <mergeCell ref="E18:E24"/>
@@ -5033,35 +5079,20 @@
     <mergeCell ref="A54:A59"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="A47:A52"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A65:A80"/>
-    <mergeCell ref="E40:E45"/>
-    <mergeCell ref="E47:E52"/>
-    <mergeCell ref="E54:E59"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="E65:E80"/>
-    <mergeCell ref="A222:A230"/>
-    <mergeCell ref="A241:A246"/>
-    <mergeCell ref="A214:A220"/>
-    <mergeCell ref="E195:E201"/>
-    <mergeCell ref="E203:E212"/>
-    <mergeCell ref="A203:A212"/>
-    <mergeCell ref="A248:A255"/>
-    <mergeCell ref="E248:E255"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="E2:E16"/>
-    <mergeCell ref="E241:E246"/>
-    <mergeCell ref="A114:A144"/>
-    <mergeCell ref="E114:E144"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="A157:A162"/>
-    <mergeCell ref="E157:E162"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="E232:E239"/>
-    <mergeCell ref="E214:E220"/>
-    <mergeCell ref="E222:E230"/>
-    <mergeCell ref="A232:A239"/>
-    <mergeCell ref="A195:A201"/>
+    <mergeCell ref="E82:E87"/>
+    <mergeCell ref="E89:E95"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="A146:A152"/>
+    <mergeCell ref="A165:A194"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="A89:A95"/>
+    <mergeCell ref="E108:E112"/>
+    <mergeCell ref="E146:E152"/>
+    <mergeCell ref="E165:E194"/>
+    <mergeCell ref="E97:E106"/>
+    <mergeCell ref="A97:A106"/>
+    <mergeCell ref="A157:A163"/>
+    <mergeCell ref="E157:E163"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
